--- a/application/static/excel_data/data_crawling -- belajar di rumah.xlsx
+++ b/application/static/excel_data/data_crawling -- belajar di rumah.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5032" uniqueCount="4394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5806" uniqueCount="4920">
   <si>
     <t>id</t>
   </si>
@@ -14632,6 +14632,1720 @@
   </si>
   <si>
     <t>twintkle</t>
+  </si>
+  <si>
+    <t>Kalian malem minggu kemana? Kalo aku di rumah aja, nemenin adek belajar buat uas @treasuremembers https://t.co/84nh3iX7xq</t>
+  </si>
+  <si>
+    <t>7chill88</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:54:37 +0000 2020</t>
+  </si>
+  <si>
+    <t>@schfess mungkin  mereka waktu kumpul butuh hiburan sebentar nder jadinya mereka bahas cowo buat sekadar aja.. mungkin di rumah mereka belajar buat UTBK..
+tapi kalo misalnya gak belajar sama sekali,ingetin aja sesekali,kalo dapet respon buruk ya.. biarin mereka lakuin apa yg mereka mau..</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:54:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ada seorang habib yang belajar di Tarim selama 4 tahun. Dia sering mendapatkan surat dari rumah. Dulu tentu beda dengan sekarang yang sudah serba teknologi, ini surat kertas. Tapi surat itu tak pernah dibuka sama sekali. Hanya ditaruh dengan rapi.</t>
+  </si>
+  <si>
+    <t>mohsyahri1920</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:40:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Baru kali ini bingung ngisinya gimana🤦‍♀️
+Kayaknya selama belajar di rumah yang belajar orang tuanya deh bukan anak2nya🤣🤣 https://t.co/G6jMtCRgKf</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:40:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>Napa gua ikut ortu ama adek keluar seharian si goblok, bukannya di rumah apa ke cafe sendiri gitu buat belajar kan lebih berguna tolol. Ini gua ikut juga ga ngapa-ngapain, ga dapet apa-apa juga sat! Anj taulah bodoh bgt emg.</t>
+  </si>
+  <si>
+    <t>rajendra_31</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:38:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>@vfymilkyxx Gua pernah ngaji di rumah terus nada ngaji gua tug gtu gtu aja karna gua kaga tau mana yg harus baca panjang sama pendek,ehh papah gua marah katanya ngajinya ga bener😭padahalkan gua masih belajar:(</t>
+  </si>
+  <si>
+    <t>yyoursoul</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:35:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Nenek sakit, Belajar kreatif infus nenek di rumah hehe malam semua 🙃 https://t.co/vO5oKzgr7B</t>
+  </si>
+  <si>
+    <t>anakkiler</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:32:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:16:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>@listy9021 Tuh meong lagi di ajarin apa cobak, ampe serius gtu belajar nya.... kalah di kembarku di rumah...🤣🤣</t>
+  </si>
+  <si>
+    <t>sarielittlenose</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:11:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Belajar di kamar sinyal lemot. Di luar kamar banyak distraksi. Kalo pun belajar di luar rumah katanya ntar keluar2 mulu zzzz</t>
+  </si>
+  <si>
+    <t>simbakteteh</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:09:53 +0000 2020</t>
+  </si>
+  <si>
+    <t>@Mychococolate jogja ujan jdi gabisa kemana-mana hikd,di rumah nemenin bocil belajar mewarnai sama menulis ni wkwk https://t.co/qEHQLwZxCT</t>
+  </si>
+  <si>
+    <t>amigurlxx</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:00:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Nah, bagaimana P-assengers? Semoga pembahasan kali ini bisa membantu P-assengers dalam menjalankan PJJ, ya. Sampai jumpa di konten berikutnya, P-assengers! 👋 
+Sumber: https://t.co/o0waREaFei 
+#Insignia
+#PIDASTipsnTrick
+#PIDAS81</t>
+  </si>
+  <si>
+    <t>pidas_81</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:00:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>4. Pastikan Koneksi Internet Lancar
+Selama belajar di rumah, hampir semua aktivitas mengandalkan internet. Koneksi internet yang lancar akan memudahkan dalam browsing materi belajar, video call bersama teman, atau pun saat refreshing setelah belajar. 🌐</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:00:17 +0000 2020</t>
+  </si>
+  <si>
+    <t>2. Buat Jadwal Istirahat
+Belajar di rumah kadang membuat lupa waktu. Akibatnya, rasa jenuh dan lelah muncul di saat belajar. P-assengers bisa istirahat selama 15-20 menit setelah belajar selama 1 jam. Waktu istirahat ini, digunakan untuk mengistirahatkan otak setelah belajar. 🧠</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:00:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>Halo P-assengers! 😊 
+Berjumpa lagi bersama PIDAS81 dalam rubrik "Tips n Trick". Dalam thread kali ini, PIDAS81 akan membahas tentang 4 Tips Mengatasi Bosan Belajar di Rumah, nih. Yuk, simak pembahasannya! 👇 https://t.co/LgYKR9No6g</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 12:00:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>-c
+gue akan minta ortu izin sakit biar gue bisa belajar di rumah sama guru les- baru di hari selanjutnya minta UH susulan. ☺️☺️☺️</t>
+  </si>
+  <si>
+    <t>maureendhita</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 10:19:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>@eravolutions Hai, Kak Ontaaa! Celine malam ini rencananya belajar aja kak di rumah. 🥺💔 Kakak sendiri gimana???</t>
+  </si>
+  <si>
+    <t>ceyines</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 09:38:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>Why students ada masalah untuk study dekat rumah sebab nak kena siapkan kerja rumah sedangkan kerja rumah yang cikgu beri tu adalah bahan bantuan belajar di rumah</t>
+  </si>
+  <si>
+    <t>nurizzahhani</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 09:17:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>34. belajar di rumah https://t.co/Hi6FPi3yFU</t>
+  </si>
+  <si>
+    <t>nongbaiwin</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 08:47:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>@kisahtwt Takde modal nak menjual? Tak tahu barang ape yang sesuai untuk dijual? Nak belajar cara menjual di shopee? Meh belajar di link bawah ni👇🏼 sesuai untuk yang kehilangan kerja, nak buat bisnes sampingan dan suri rumah😊
+https://t.co/bVpfbO0tUo</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 08:41:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>@jancoca Takde modal nak menjual? Tak tahu barang ape yang sesuai untuk dijual? Nak belajar cara menjual di shopee? Meh belajar di link bawah ni👇🏼 sesuai untuk yang kehilangan kerja, nak buat bisnes sampingan dan suri rumah😊
+https://t.co/bVpfbO0tUo</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 08:40:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>@WonderbakeM Takde modal nak menjual? Tak tahu barang ape yang sesuai untuk dijual? Nak belajar cara menjual di shopee? Meh belajar di link bawah ni👇🏼 sesuai untuk yang kehilangan kerja, nak buat bisnes sampingan dan suri rumah😊
+https://t.co/bVpfbO0tUo</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 08:37:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>@AdDien90 Takde modal nak menjual? Tak tahu barang ape yang sesuai untuk dijual? Nak belajar cara menjual di shopee? Meh belajar di link bawah ni👇🏼 sesuai untuk yang kehilangan kerja, nak buat bisnes sampingan dan suri rumah😊
+https://t.co/bVpfbO0tUo</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 08:31:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>@hikmah_rahim Takde modal nak menjual? Tak tahu barang ape yang sesuai untuk dijual? Nak belajar cara menjual di shopee? Meh belajar di link bawah ni👇🏼 sesuai untuk yang kehilangan kerja, nak buat bisnes sampingan dan suri rumah😊
+https://t.co/bVpfbO0tUo</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 08:29:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>@syifaaaahmad Takde modal nak menjual? Tak tahu barang ape yang sesuai untuk dijual? Nak belajar cara menjual di shopee? Meh belajar di link bawah ni👇🏼 sesuai untuk yang kehilangan kerja, nak buat bisnes sampingan dan suri rumah😊
+https://t.co/bVpfbO0tUo</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 08:25:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>@wolfipali Takde modal nak menjual? Tak tahu barang ape yang sesuai untuk dijual? Nak belajar cara menjual di shopee? Meh belajar di link bawah ni👇🏼 sesuai untuk yang kehilangan kerja, nak buat bisnes sampingan dan suri rumah😊
+https://t.co/bVpfbO0tUo</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 08:22:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>@hanifjamals Takde modal nak menjual? Tak tahu barang ape yang sesuai untuk dijual? Nak belajar cara menjual di shopee? Meh belajar di link bawah ni👇🏼 sesuai untuk yang kehilangan kerja, nak buat bisnes sampingan dan suri rumah😊
+https://t.co/bVpfbO0tUo</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 08:19:21 +0000 2020</t>
+  </si>
+  <si>
+    <t>@AimanPsikologi Takde modal nak menjual? Tak tahu barang ape yang sesuai untuk dijual? Nak belajar cara menjual di shopee? Meh belajar di link bawah ni👇🏼 sesuai untuk yang kehilangan kerja, nak buat bisnes sampingan dan suri rumah😊
+https://t.co/bVpfbO0tUo</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 07:59:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>keknya cuma gw sendiri di rumah yg ga galauin cowo????? w udah move on dari juli kemaren. trus sisa hari gw isinya stress belajar onlen jir, gapentingin amat mikirin cowo?????</t>
+  </si>
+  <si>
+    <t>faraday12345678</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 07:23:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>lah antum pikir rumah tempat paling nyaman seluruh dunia apa ya?
+ya allah
+sumpah jahat bgt pikirannya
+gak tau aja orang pada stres kelamaan di rumah, belajar &amp;amp; tidur di tempat yg sama antum pikir enak?🌚🌚🌚🌚🌚🌚🌚🌚🌚🌚🌚🌚🌚</t>
+  </si>
+  <si>
+    <t>detailyy</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 07:17:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>@tonymontanayy @schfess Statement mu ini cuma memperuncing stigma buruk ke anak linjur.
+Anak IPA yang linjur itu 2 kali kerja lo, di sekolah harus belajar IPA, di bimbel atau rumah harus belajar IPS.
+Masa gaboleh bangga sama perjuangan gitu?</t>
+  </si>
+  <si>
+    <t>checkoves</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 07:14:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>@ily_ddp dri kmrn2 minta ajarin bapak di rumah belajar main motor nanti2 mulu😭😭 iya makanya biar kita balapan motor di udara</t>
+  </si>
+  <si>
+    <t>bfmeanie</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 07:02:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>gabisa fokus belajar dah sekarang kalo ortu sama adek masih bangun atau di rumah</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 06:00:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kamu boleh diam aja dirumah, belajar di rumah , belanja dari rumah biar Kurir JNE yang #bahagiabersama mengantarkan paket ke setiap rumah https://t.co/BLvLjIfKKR</t>
+  </si>
+  <si>
+    <t>mommy_nur</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 05:55:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>@jek___ @kukukukuruyuk1 Buat beli batre HP tetangga yg mati boleh ga Tad? Ini HP nya ada di rumah. Mati. Mau dicoba beli batre baru, blm cukup duitnya beliau. Katanya sik buat belajar online, baru beli 2 bulan, eh udah koid HP nya kerna batrenya gendat. Merk Xiaomi Redmi 2 Tad.</t>
+  </si>
+  <si>
+    <t>vanirveriani</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 05:20:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>️️
+️️
+️️
+️️
+Kue kering itu, seperti cookies? Atau, yang bagaimana Kak? 
+Ah, Saya Dalana. Di rumah diisi dengan belajar. 
+( @keIelahan )
+️️
+️️
+️️
+️️ https://t.co/rzVxWESnTV</t>
+  </si>
+  <si>
+    <t>RetisaIya</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 05:00:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>/lt Haiii! aku lagi mau baca buku Sapiens nya dari Yuval Noah... tapi aku juga mau belajar TKA buat SBM. Cara nge-waktu in yang pas nya gimana ya:) anw aku gaada kerjaan apaapa, jadi benerbener free di rumah :) Thx!</t>
+  </si>
+  <si>
+    <t>literarybase</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 04:47:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Permudah kelola manajemen sekolah kapan pun dan di mana pun!
+Siswa yang belajar dari rumah dan belajar dari sekolah tetap produktif
+Dengan menggunakan aplikasi manajemen sekolah online https://t.co/9VjlM1EnpZ, kelola berbagai informasi sekolah mudah https://t.co/U05dnPyb3q</t>
+  </si>
+  <si>
+    <t>YFingerspot</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 04:43:51 +0000 2020</t>
+  </si>
+  <si>
+    <t>Menurut aq sih ada beberapa poin alasan kenapa tidak pas :
+1. Angkatan 21 sebagian masa sma kita ya dihabiskan di rumah aja. Daring pembelajaran tidak sepenuhnya efektif. Selain itu kita tau sendiri teman-teman lain belum tentu belajar daringnya efektif alias kurang merata.</t>
+  </si>
+  <si>
+    <t>angelinhtg</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 04:29:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>Saya bersyukur karena PLN sudah membantu memberi listrik di rumah saya, sekarang cucu saya bisa belajar dalam keadaan terang. Terima kasih peserta Charity Run and Ride,” tutur Jan.</t>
+  </si>
+  <si>
+    <t>maizputra</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 04:14:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dulu semuanya gelap, terkadang hanya memakai lampu pelita. Saya bersyukur karena PLN sudah membantu memberi listrik di rumah saya, sekarang cucu saya bisa belajar dalam keadaan terang. 
+https://t.co/6t0auyMOcw</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 03:44:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>@triindonesia udah pake 3 bertaon taonn,buat belajar lancar, yutube lancar, untungg sinyal 3 di rumah ku bagus, udah lancar trs murah lagi xixixi,sampe poin ku ber ribu ribu krn jarang di tuker🤣, kadang jg dapet gratis kuota youtube, ahhh 3 byk bonus nyaaa😍
+#UntungPakaiTri .</t>
+  </si>
+  <si>
+    <t>apasiapadia</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 03:21:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>@samsungID Aku pilih #GalaxyA01 #GalaxyA01Core &amp;amp; #GalaxyA11 buat #SemangatTetapSekolah di rumah karena Galaxy A01 dan A11 memiliki harga yang terjangkau dan mempunyai fitur yang mumpuni untuk belajar dirumah karena mempunyai daya tahan baterai yang cukup lama dan memiliki performa yang bgs.</t>
+  </si>
+  <si>
+    <t>darren37373</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 03:12:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>glaldy168</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 03:10:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>glaldy</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 03:10:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terjangkaunya nggak ngadi-ngadi euy! Valid banget buat dijadiin pendamping belajar onlen selama di rumah 😄
+Cuma tersedia 12-14 Desember 2020! Langsung dapetin paketnya di aplikasi Pahamify atau https://t.co/DXsWq4e1sU skuy! 😎 https://t.co/0KoApcaXeh</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 03:03:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>✨ Paket Belajar 6 Bulan DISKON 90%!
+Rp 60.000,-
+Partner setia belajar onlen di rumah!
+Kamu bisa akses semua video belajar Pahamify (materi pelajaran, video materi UTBK, dan ekskul) selama 6 bulan. Lengkap sama flash card, quiz, dan rangkuman 😄 https://t.co/a0pg9bCByx</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 03:03:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>@SaveMoslem1 @Dedy59452418 Yg PKI FPI boss...belajar motong2 kepala emangnya mau kurban😂😂 ngomong sama Nikita. lebih pinter.tuh kasus SIGI sama bom Bali kerjaan siapa?. Agama radikal.PKI zaman merdeka UD gk ada.skrg Nasionalisme sertifikat rumah ente di bakar aja yg program Jokowi..sembako gratis buang</t>
+  </si>
+  <si>
+    <t>Badboy06864860</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 03:03:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>@OrangwarasN Rizieq harus dimintai pertanggungjawaban atas baliho baliho yg mengarah pada kekerasan. Mereka itu mengatasnamakan agama dengan sangat tidak bertanggungjawab. Ga perlu ragu untuk menghalaunya. Kalau gerakan agama cukup di rumah ibadah utk beraktivitas, bisa bisnis, belajar dll.</t>
+  </si>
+  <si>
+    <t>M_Katjasungkana</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 02:41:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>Gue udah ga kuat kelas online lagi. Stress gue, gila gue lama lama. Keadaan rumah gue ga bisa di jadiin tempat buat belajar. Ya Tuhan, guega mau kelas online lagi... gue udah muak sama suasana rumahh</t>
+  </si>
+  <si>
+    <t>bobohuuw</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 02:39:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>not to forget kelmarin suruh dia buatkan n bawak balik kopi dunkin paling sedap di alam semesta BUT she brought back kopi pahit nak mampos alasan dia “adik baru belajar kopi yg ni” KO KELUAR RUMAH SKG</t>
+  </si>
+  <si>
+    <t>hibernii</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 02:16:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>Di masa pandemi gini emang sulit banget kan cari kerja, apa lagi kita yang lagi diem di rumah aja tapi pengen banget dapet kerja, nah dari @Pijarmahir kita bisa belajar juga loh tentang "anti nganggur cara melamar kerja tepat sasaran" #PijarMahir #SiapDariSekarang https://t.co/btVIwAEkRV</t>
+  </si>
+  <si>
+    <t>akutaurifky</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 02:00:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>belajar hecting di rumah dg alat seadanya bgt</t>
+  </si>
+  <si>
+    <t>enjimeilia</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 01:58:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>@schfess perpusda coba nder, atau bisa belajar bareng di rumah temen yang sepi gituu</t>
+  </si>
+  <si>
+    <t>uribangaroo</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 01:53:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>sch! tempat belajar yang enak dan sepi dimana ya. ga bisa aku belajar di rumah rame banget 😔</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 01:51:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>@Elina_Vay hai kak elin, sebelumnya terima kasih banyak untuk kesempatannya😊 aku mau banget buku ini buat belajar sbmptn🥰 aku sekarang kelas 11 dan lagi di rumah aja jadi punya banyak waktu buat belajar, pengen banget buku ini buat nambah pengetahuan aku🤗 semoga kakak selalu sehat❤️ https://t.co/JJ598cH6fH</t>
+  </si>
+  <si>
+    <t>resnature</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 01:31:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>@samsungID Galaksi series A juga, byk pilhan RAMnya, mau nonton Drakor, Graming,Streming, sampe buat belajar full di rumah sangat oke, HP di segala suasana hati pokoknya ada, HP nyeningin diri sendiri</t>
+  </si>
+  <si>
+    <t>Rarafebrida</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 01:21:49 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kemendikbud melalui TVRI terus menayangkan Program Belajar dari Rumah di akhir pekan ini. https://t.co/IZl04DVE9C</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 01:02:33 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tips Belajar di rumah saat PAS 
+Ya waktu ngerjain soal, pasti nyantol langsung bisa jawab soal kan...</t>
+  </si>
+  <si>
+    <t>sabrin20_</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 23:51:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>gue tuh udh semangat belajar ya gila, udh mandi pagi udh siap pokokny. trs sumpah bete bgt astaghfirullah sinyal di rumah gue jelek bgt mau nangis:( jdi males astaghfirullah jdi ga mood bgt kesel anjirrrrr timbang buka zenius doang lemot bgt sedi:(</t>
+  </si>
+  <si>
+    <t>seancdie</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 23:47:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Bayangkan di party outdoor perpisahan sekolah lu, anak band sekolah lu cover lagu Freely by DAY6!
+[Bayangkan aja dulu]
+Eehh...
+Sudah jingkrak-jingkrak, sudah loncat-loncatan dibawa happy. Sampai rumah harus kembali belajar buat tes SBMPTN, dan elu IPC💪😭
+https://t.co/r8ooBziLq8</t>
+  </si>
+  <si>
+    <t>Bingbing_8</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 23:34:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Berikut ini jadwal Belajar dari Rumah di TVRI Nasional, Sabtu 12 Desember 2020 bagi siswa yang sedang berakhir pekan. https://t.co/wAsBcGWJHU</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 23:04:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>@teazzyyyy @humblemaeum manggaaa, kalo memang di rumah blm ada dan tidak bisa diperbaiki maka silakan beli. kembali pada value masing2, diagram ini cocok bagi yang ingin belajar zerowaste dan conscious living 😊</t>
+  </si>
+  <si>
+    <t>althafiasfn</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 22:21:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>@schfess Aku ga les apapun, ya pasti di rumah banyak ke distraksi. Kalo distraksinya berisik aku reflek ngomel, kalo di panggil ya nyaut trs di urusin bentar sambil bilang "aku lagi belajar loh, jangan manggil-manggil trs, pelajarannya susah, dikit-dikit bangun, dikit-dikit gerak"</t>
+  </si>
+  <si>
+    <t>eternalmoonthh</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 22:00:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ide untuk yang ndekem di rumah saja: bukan cuma tanaman!
+1. coba sih iseng belajar EXCEL lagi...itu pelajaran TIK jama skul yg kamu takutin kan?
+2. melukis di kanvas pake akrilik...ngaku aja deh dulu pas skul paling males kan disuruh ginian
+3. coba main rubik..hayo..bisa gak?</t>
+  </si>
+  <si>
+    <t>ptsaphira</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 18:04:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>@Rarara3098 Student sekarang udah ngga berasa student lagi wkwk, belajar di rumah mulu soalnya🤭</t>
+  </si>
+  <si>
+    <t>beotkkoch_nim</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 18:02:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Muhammad luthfi tetap sehari-hari mengerjakan aktivitas shallat,ngaji,belajar dan kerja di rumah setiap hari.</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 17:51:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>@veaceluv @sweetaeboo Tapi kalian emng salah😭😭
+itu emng pake konsep timur tengah masalah ornamen yg mirip masjid itu di timur tngh biasa dipake buat ornamen rumah.Masalah tulisan arab. Itu bukan tulisan dri alquran atau hadist. Trs yg kubus mirip ka'bah ayo belajar lgi bentuk ka'bah itu kayak gimana https://t.co/LUVn6l7f3V</t>
+  </si>
+  <si>
+    <t>irrianaa</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 17:39:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Gak tau ini bisa bermanfaat buat kalian apa enggak, tapi ada dua fase pas belajar UTBK:
+1. Waktu masih ada urusan sekolah, gue cuma meduliin pelajaran sekolah yang emang berkaitan sama UTBK. Di luar itu, asal lulus aja.
+2. Waktu karantina, cuma bagi waktu sm tugas rumah aja sih https://t.co/O0zroR328M</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 16:47:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>ㅤTernyata setiap kelompok akan ditempatkan pada rumah berbeda. Ditambah lagi, setiap pemilik rumah memiliki profesi yang berbeda pula. Menarik, pikirnya. Mungkin selama di desa ini, mereka akan belajar tentang aktivitas para penghuni desa. Yori sangat tidak sabar menunggu ↷</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 16:27:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>@samsungID Meski belajar di rumah, samsung tentunya perangkat smartphone yang cocok digunakan buat daring, sekaligus  berkualitas dengan harga yang terjangkau.</t>
+  </si>
+  <si>
+    <t>commentsceleb12</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 16:22:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ngefangirl hampir setahun makasih ya nct udah mengisi hari-hari jenuh ku selama pandemi ini. Ya jenuh belajar (12+UTBK), jenuh di rumah dll. Makasi banyak deh💕🤗</t>
+  </si>
+  <si>
+    <t>assyapeachy</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 16:12:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sebenarnya banyak sekali kegiatan yang pernah saya lakukan sejak awal pandemi berlangsung. Beberapa diantaranya planting, belajar masak, olahraga di rumah, menata ulang kamar, dll. Kegiatan-kegiatan lain juga bisa kalian lakukan di rumah loh..
+https://t.co/pAZjMCyX5b</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 15:56:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>@tanyainrl Jujur gue pengen pake banget, tp mental gue down karna stress selama belajar di rumah</t>
+  </si>
+  <si>
+    <t>Nn18217985</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 15:46:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>@ata_lia Wilujeung sonten euceu...  Kumaha wartosna... ?? Euceu.. Kuringmah ngeri putri abi... Belajar di rumah tina hp... Tugas beres hp lanjut karakterya takut jdi pemalas.... Yg dulu sepulang sekolah mau dia pegang sapu.Trus berangkat ngaji, nah skrg mageran jdiya</t>
+  </si>
+  <si>
+    <t>Nfal00701488</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 15:43:55 +0000 2020</t>
+  </si>
+  <si>
+    <t>@fuckphysic a farhan, kalo di rumah sering diomelin gak gara-gara belajar terus atau gara-gara mau ngapain dihitung dulu ?</t>
+  </si>
+  <si>
+    <t>hobikurebahanya</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 14:58:25 +0000 2020</t>
+  </si>
+  <si>
+    <t>sch! Apa yg kalian lakuin kalo rumah kalian ngak kondusif buat belajar?
+✄・・・
+Trivia: Barholome Vignon merupakan pelukis yang bergelut di aliran klasikisme</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 14:32:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sistem belajar di rumah udah hampir 12 bulan, hasilnya bikin pusing seisi rumah. Nangis, kesel, juwet, marah. Gak ada bagus-bagusnya.</t>
+  </si>
+  <si>
+    <t>imnyctha</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 14:23:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Di IPM juga aku belajar ga manja. Bobo di jalan aja oke, apalagi terminal sama stasiun. Kalau udah ga kuat lanjut ke rumah, biasanya aku bobo di gubeng (musholanya yg sekarang udah ada ac nya), di purabaya (yang enak banget saiki musholanya ada ac nya juga),</t>
+  </si>
+  <si>
+    <t>ayunda_NF</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 14:22:57 +0000 2020</t>
+  </si>
+  <si>
+    <t>Belajar hidup di jalan itu ya ketika IPM.
+ketika jalan menjadi rumah, dan bus jadi tempat bobo terempuk.</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 14:18:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>@utilbaba YAKAAAANNNNNN.. 
+tadi  aku tlp ada gangguan. alasannya karna banyak orang kerja &amp;amp; belajar di rumah, ditambah aku paket promo katanya 🙃
+Btw, temen aku di kelapa dua aman katanya jon</t>
+  </si>
+  <si>
+    <t>anisyaTITA</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 14:09:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>@ferrinaksm @nucleeeaarr @rclnatasyaa Bukan sayang duit nya, gaji gw 25 jt dan gw prefer beresin rumah tag team ama bini,  belajar dari om di US yg kalo kaya kaya banget ga ada ART 😂</t>
+  </si>
+  <si>
+    <t>netizenbiasa20</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 14:08:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>@serreeinn pukul aja nih si itu ya ampun makasih banyak banget ya gue emang mau ke bandung tapi kalo gue sih yang bikin kesel sama siapa yang menang di rumah aja sih kalo cewek itu kalau mau belajar mah haus iya sama sama usaha sendiri aja nih si dia menyukai iya sama sama 😼</t>
+  </si>
+  <si>
+    <t>ddohwana</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 13:42:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>kayanya akan sering ngetwit yg isinya ttg balita 2 tahun ini deh, dibuat banyak belajar bgt ontinya krn ada Oza di rumah :) makasih Oza syg</t>
+  </si>
+  <si>
+    <t>rantiast</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 13:39:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>@schfess Homeschooling, selama belajar di rumah lumayan cukup nyaman ketimbang sekolah biasa. Selain itu lebih fokus belajar dan gak ada yang ribut.</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 13:36:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>Hai Sobat LinkAja!
+Kamu punya anggota keluarga atau kerabat yang masih sekolah dan harus melakukan kegiatan belajar di rumah? Nah, LinkAja punya info menarik nih! https://t.co/RJxkNnHil7</t>
+  </si>
+  <si>
+    <t>linkaja</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 13:21:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sekian lama anak-anak belajar dari rumah barangkali terasa menjemukan. Untuk menghilangkan rasa jenuh, ada banyak aktivitas yang bisa dilakukan bersama anak di rumah, mulai dari berkebun, olahraga, atau duduk-duduk sambil membaca. https://t.co/ErES9bm8zB</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 13:03:48 +0000 2020</t>
+  </si>
+  <si>
+    <t>@niniesaini iya itu kita masi lagi belajar bikin bumbu charsiu nis, emg biasanya pake babi klo di tempat2 bakmi tpi kita ganti sapi biar aman masak di rumah wkwkwkwk, aamin! doain yak secepatnya wkwk</t>
+  </si>
+  <si>
+    <t>sambatsehat</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 13:01:26 +0000 2020</t>
+  </si>
+  <si>
+    <t>@sygfess Gapenting. Ga punya.
+Canda maaf
+Kalo ga diadaadain, besok kalo nikah juga mau diem"an di rumah?
+Pacaran itu buat belajar komunikasi sayang.</t>
+  </si>
+  <si>
+    <t>Jaejae_hyum</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 13:01:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>@pujijea @suryadelalu Dari saya : 1. Cek Niat, ikhlas, fokus belajar hanya untuk mencari ridha Allah SWT, 2. Cek metode, metode yang baik harusnya malah mempermudah bukan memeprsulit, banya sudah rumah tahsin dengan mudir bersanad 3. Cek Kesungguhan diri dalam mempraktikan teori yang sudah di dapat,</t>
+  </si>
+  <si>
+    <t>Qolbun_Salim</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 13:00:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>Sukriyani (Zaskia Gotix) sangat penasaran kenapa dirinya selalu dilarang oleh neneknya untuk belajar menari Jaipong. Diam-diam Sukriyani mendatangi Nyi Imas mantan penari Jaipong di rumah tuanya untuk belajar menari.
+#RAPictures #MDPictures #BadMonkey #WeTVID #NontonDiWeTV https://t.co/HPp51vA7l0</t>
+  </si>
+  <si>
+    <t>MDPictures</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 12:52:04 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mulai belajar, bekerja, beribadah, cari uang, cari konten, semua-muanya nyaris setahun terakhir kita lakukan semuanya di rumah aja.
+Kalo dipikir-pikir, manusia itu hebat ya. Untuk bertahan hidup, kita bisa menyesuaikan segala keadaan dengan hal baru.
+#GrowWithDBS #DBSIdeal https://t.co/MhQpPLGBfM</t>
+  </si>
+  <si>
+    <t>canisiusandrew</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 12:47:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>di rumah gabisa belajar lewat hape soalnya keliatannya cuma ✨tidur tiduran✨</t>
+  </si>
+  <si>
+    <t>shafirarizki</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 12:29:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 12:16:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>Persoalan kerja dari rumah:
+Internet mati, meja roboh, kucing kencing di sofa, laptop ngadat, earphone rusak, ngajait popoean pas hujan 🤣
+But yeah dibawa santai aja. Ketawa-ketiwi brg mahasiswa. Belajar ngelola emosi akan hal-hal di luar kendali diri.</t>
+  </si>
+  <si>
+    <t>akarliar</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 11:57:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kejenuhan dan ketidakefektifan belajar di rumah selama pandemi, dengan kekhawatiran penyebaran covid-19 terus jadi dilema. Tak heran wacana pembukaan kembali sekolah yang dilontarkan Kemendikbud, sontak jadi polemik. Solusi terbaik pun dinantikan. #PembukaanSekolah #Pendidikan https://t.co/QByW3bfQAF</t>
+  </si>
+  <si>
+    <t>validnewsid</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 11:56:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>@schfess sama nder, dari kelas 7 aku pengen les tapi kehambat ekonomi. sekarang uda kelas 9, 3 tahun berjuang sendirian ga diajarin siapa siapa cuma kesadaran diri aja karna ga les jadinya aku ganti belajar di rumah dan nonton vidio pembelajaran di yt sama latsol mulung dari twit</t>
+  </si>
+  <si>
+    <t>resahjadiluka</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 11:55:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terimakasih banyak suda menjadi tempat belajar serta rumah bagi kami anak-anak rantau di makassar. Teguh dalam cita-cita ikhlas dalam perjuangan https://t.co/329OCqFbKS</t>
+  </si>
+  <si>
+    <t>Andra_Avriangga</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 11:03:06 +0000 2020</t>
+  </si>
+  <si>
+    <t>@rotikaya Itu lah, sikit² perempuan je diwajibkan belajar memasak. Engko lelaki kengkonon pemimpin, suruh memasak pun tak reti. Done geram!
+Di tuju utk lelaki yg tak pandai memasak acah king goyang telo kat rumah. Yg laki pandai masak TAHNIAH 👍🏼</t>
+  </si>
+  <si>
+    <t>Oi_OceanOcean</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 10:42:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>@evylagi @suryadelalu Nah gk tau tuh. Awalnya emg dia ngajar di rumah tahsin, ada ysyasannya. Trs bubar, qt lanjut belajar sendiri sama dia</t>
+  </si>
+  <si>
+    <t>pujijea</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 10:22:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>“Kau ni cah nampak mcm ndk layan drama dgn movie, lagi2 kalau bab2 ilmu belajar ni ndk di sangka2” hahahahahahahaha sudah2 laa ya kamu mengombal, dtg jak rumah ku nnti aku masak, pura2 lagi situ elehh</t>
+  </si>
+  <si>
+    <t>asyhamran</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 10:10:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>@JakaAdy Pas mau nembak, teringat masa lalu. Mulai dari belajar bermain. Diejek teman2. Dibuli di sekolah. Mempunyai mimpi main di Liga Inggris. Ingat guru olahraganya. Ingat pelatih pertamanya. Ingat tetangganya. Ingat tukang bakso depan rumah. Abis 10 episode, baru nembak, dan gol!</t>
+  </si>
+  <si>
+    <t>foggen_</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:45:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Vangsit tolil yg gak pernah belajar sejarah, taunya numpang di rumah mertua dan diem2 poligami. https://t.co/AOpgr4mO0E</t>
+  </si>
+  <si>
+    <t>miss42ner</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:33:32 +0000 2020</t>
+  </si>
+  <si>
+    <t>@samsungID Aku pilih #GalaxyA01 #GalaxyA01Core &amp;amp; #GalaxyA11 buat #SemangatTetapSekolah di Rumah karena harga murah, fitur wah! Tidak menguras kantong, tapi terasa manfaatnya mendukung kelancaran proses belajar dari rumah. Orang tua hemat, anak hebat berprestasi, win-win solution banget ❤️</t>
+  </si>
+  <si>
+    <t>Reymaulana114</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:32:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>@samsungID Aku pilih #GalaxyA01 #GalaxyA01Core &amp;amp; #GalaxyA11 buat #SemangatTetapSekolah di Rumah karena harga murah, fitur wah! Cocok bagi kantong pelajar atau orang tua yang ingin mendukung proses buah hati belajar dari rumah. Belajar lebih semangat bersama Samsung!</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:30:57 +0000 2020</t>
+  </si>
+  <si>
+    <t>Belajar di rumah mau makin asik? Langsung aja langganan paket Video Pembelajaran di NFJuara.
+Mumpung Harbolnas, semuanya diobraaaal!
+Yuk meluncur ke aplikasi NFJuara, udah bisa dibeli sekarang 🔥🔥 https://t.co/5c3kkqIzpA</t>
+  </si>
+  <si>
+    <t>nfjuara</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:24:09 +0000 2020</t>
+  </si>
+  <si>
+    <t>Saya belajar ihwal menjaga data lapangan yg ori dg kemahirannya sbg sopir, handicraftsman yg mengelola rumah kayu di Selebes, "project manager"</t>
+  </si>
+  <si>
+    <t>imamsamroni</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:16:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>FUCK I HATE ONLINE. ANJING BABI MONYET BANGSAT. KESEL BNGET LAH GW NJING. GW PEN TIDUR. TADI MALEM ABIS BEGADANG BELAJAR UAS. PES ISTIRAHAT LAH GW NJIR. TAPI DIBANGUNIN. ANJING BANGET. MANA MAKSA LAGI. SOK TAU BANGET NJIMG. GW GA MAU DI RUMAH. HW MAU TINGGAL DI KOS AJA LAH NJIR</t>
+  </si>
+  <si>
+    <t>dwendelindandel</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:13:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>yoyoi, gw mau belajar masak asliiii tp gw ga boleh pake dapur buat masak macem macem
+tp gw kalo masak ga di dapur rumah gw ga suka 😭 https://t.co/OOYGGBGtg9</t>
+  </si>
+  <si>
+    <t>ekasheii</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:11:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>@dsuperboy Perempuan belajar baik2 hingga jenjang pendidikan tinggi bukan ingin unjuk ke laki2 bahwa ia pintar, tapi agar punya bekal di hidup ini, dunia dan akhirat harus punya ilmu, walaupun jadi ibu rumah tangga.</t>
+  </si>
+  <si>
+    <t>Aulya29</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:07:20 +0000 2020</t>
+  </si>
+  <si>
+    <t>@kimJeon_Liva Berarti mamy jago masak yaa, duhhh jdi pen belajar masak sama mamy, biar calon suami betah di rumah hihi</t>
+  </si>
+  <si>
+    <t>pesonanyarm_</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 08:37:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>Aku yakin banyak orang baik yang peduli, aku mau ajak kalian donasi untuk bantu Dilla, Desti, dan ada sekitar 30 anak lain yang butuh bantuan sarana belajar juga di sekitar rumah mereka. Bagi yang mau bantu klik link donasi ini yaa!!
+https://t.co/NvbsjlC22Z</t>
+  </si>
+  <si>
+    <t>SukmaAzhari</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 08:32:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>skrg kita mah harus jujur gaes walaupun belajar di rumah tetap jujur dan anti copas.  #StopCopyPaste https://t.co/VYAWJHjQjo</t>
+  </si>
+  <si>
+    <t>Junee_6</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:52:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>mantav dan tetap mematuhi apa yg kita lakukan dalam belajar di rumah dan tetap jujur anti copas #StopCopyPaste
+https://t.co/oLvCxbEX7B</t>
+  </si>
+  <si>
+    <t>humairaihadid</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:42:08 +0000 2020</t>
+  </si>
+  <si>
+    <t>mantav dan tetap mematuhi apa yg kita lakukan dalam belajar di rumah dan tetap jujur anti copas #StopCopyPaste https://t.co/xI5lszJDru</t>
+  </si>
+  <si>
+    <t>Andri80297317</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:34:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>doa orng sakit hati itu di kabulin allah, doain semoga perempuannya ga pernah ngerasain sakit kayak wenni. jgn buru2 pernikahan itu sakral sayang, jgn iri nikah itu butuh kesiapan lahir batin kesiapan ngurus suami anak rumah tangga, anak mama masih muda masih butuh banyak belajar</t>
+  </si>
+  <si>
+    <t>wnwarmn</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:16:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>#Pemberdayaan PURBALINGGA, RUMAH ZAKAT - Rumah Belajar UMMI binaan Rumah Zakat di Desa Berdaya Pakuncen menyelenggarakan pelatihan membuat Bucket Snack yang cantik, menarik dan disukai remaja milenial, Minggu (29/11).</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:10:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>@kochengfess mix mungkin? ato anggora(?) kl aku si, aku lepas di dalam rumah gitu trus siapin tempat ee sama pasir nya dan dia belajar berak gt trs paham wkwkw trs siapin tempat minum dan aku udah biasain makan di twmpat makannya kayak gt satu2. di lepas tp dia ga barbar yg parahhh gt</t>
+  </si>
+  <si>
+    <t>hypeyours</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 07:07:45 +0000 2020</t>
+  </si>
+  <si>
+    <t>@schouten_id #specialmoment Di tahun 2020 ini alhamdulillah aku bisa membantu adekku belajar buat olimpiade MIPA sepulau jawa dan sekarang masuk semifinalis. Karna masa pandemi ini memang sulit buat mengajari anak di rumah. Apalagi orangtuaku sibuk bekerja. Smg nanti di final bisa jadi juara.</t>
+  </si>
+  <si>
+    <t>fikalolipop</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 06:52:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>@MissAScotts Syukurlah. Sudah belajar dengan peri rumah di kastel, Miss. Tapi baru bisa buat pancake.</t>
+  </si>
+  <si>
+    <t>restoracheat</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 06:39:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadi ceritanya, selama masih di rumah terus gue mau belajar tentang eye makeup yaa. Nah selama ini eyeshadow&amp;amp;mascara itu bikin iritasi mata gue (galama pake langsung mata berair, pedes, gatel, dll). Makanya gue sangka mata gue sangat sensitif. Tapiii</t>
+  </si>
+  <si>
+    <t>fallforchilbong</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 06:34:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>@samsungID Aku pilih #GalaxyA01 #GalaxyA01Core &amp;amp; #GalaxyA11 buat #SemangatTetapSekolah di Rumah karena memang type handphone yang cocok dan layak untuk menemani Kita belajar dirumah. Dengan harga yang cukup terjangkau dan fitur fitur canggih yang bisa membantu Kita di era teknologi ini</t>
+  </si>
+  <si>
+    <t>vinpramestaa</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 06:27:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kaya nya aku tuh abis uas ini aku bakalan keluar dari Apikes entah lah sampai kapan aku tuh pingin banget belajar agama sama guru kaya lebih home skuling belajar agama di rumah</t>
+  </si>
+  <si>
+    <t>MukorobinNurul</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 06:19:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 06:15:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>@samsungID Aku pilih #GalaxyA01 #GalaxyA01Core &amp;amp; #GalaxyA11 buat #SemangatTetapSekolah di Rumah karena Mendukung kegiatan belajar sehari2 tanpa ada gangguan</t>
+  </si>
+  <si>
+    <t>estehmurmer</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 06:01:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Bocill pen ikut ke warung, pas di warung bilang "ni pen ee" sampe drama kentut segala. Panik lah w karena doi baru belajar ga pake pampers. Trs lari ke rumah, pas di rmh "gamau gajadi" :)))</t>
+  </si>
+  <si>
+    <t>ranialll</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 05:47:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>Belajar di rumah, bagaimana kwalitas anak didik ? Menurun atau naik ?</t>
+  </si>
+  <si>
+    <t>gtr270763</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 05:36:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>kalo kata orang2 "lah selama ini kan juga libur, belajar di rumah." tapi definisi libur bagi gue ya beda, skul onlen tetep aja ngga bebas karena masi bersangkutan sama tugas, bisa dikasih tugas sewaktu2, sedangkan kalo libur beneran tuh seharian bener2 free gitu loh</t>
+  </si>
+  <si>
+    <t>woochille</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 05:32:46 +0000 2020</t>
+  </si>
+  <si>
+    <t>@panggiltaurus di rumah aja belajar masak</t>
+  </si>
+  <si>
+    <t>_andyyn</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 05:32:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>Mau belajar online ? Ini caranya :) https://t.co/9Iqd2MiutZ #UpdateEmak @Emak2Blogger</t>
+  </si>
+  <si>
+    <t>lidbahaweres</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 05:21:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Omg!!! beres jumatan di mesjid deket rumah tempat rutinitas waktu kecil belajar agama. Ketemu sama temen temen kecil... dan hasilnya pangling:( mereka masih pada inget aing dong:(</t>
+  </si>
+  <si>
+    <t>Naufalkosija</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 05:21:07 +0000 2020</t>
+  </si>
+  <si>
+    <t>kayanya semenjak punya Bumi, aku jadi orang yang sabaran deh di rumah, jarang marah2. emang ngadepin anak kecil bikin belajar banyak hal.
+lagi rebahan enak2, Bumi rungsing. "ohh mungkin capek rebahan, pengen digendong".</t>
+  </si>
+  <si>
+    <t>aprilliaps_</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 05:13:10 +0000 2020</t>
+  </si>
+  <si>
+    <t>Koramil 1426-01/Polut. Serka Musmuliadi (Ba Jaga Koramil 1426-01/Polut) melaksanakan Pendampingan Siswa-Siswi yang sedang belajar online di rumah belajar internet gratis yang di sediakan oleh Koramil 1426-01/Polut. Jum'at (11/12/2020) https://t.co/LRhwQJN53o</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 04:51:00 +0000 2020</t>
+  </si>
+  <si>
+    <t>Nama rumah belajarnya, Rumah Langit. Lokasi awalnya di jalan Al Bariyah, Kampung Tengah, Jak-Tim. Ada sekitar 80 anak yang terdaftar di rumah belajar tsb gengs. Mereka pinter2 bgt sumpah😭😭😭 Dan kemauan mereka buat sekolah tuh bener2 lebih gede dari aku kyknya:’))))</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 04:35:41 +0000 2020</t>
+  </si>
+  <si>
+    <t>Hallo! Gue pingin cerita sekaligus ngajak teman2 untuk membantu sesama nih. Kalau kalian punya waktu, dibaca dulu ya😊
+Jd gue pernah mengunjungi sebuah Rumah Belajar yang menyekolahkan anak2 pemulung secara gratis. Tempat belajarnya itu di gudang yg dipinjamkan tetangganya.</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 04:35:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>Alias hidupku keenakan ngandelin yg bantu di rumah mulu. Sekalinya yg bantu ga tiap hari di rumah malah kebanyakan ngeluh dan keteteran. Tapi dari situ banyak belajar bgttt</t>
+  </si>
+  <si>
+    <t>yasfiniw</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 04:24:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 04:13:36 +0000 2020</t>
+  </si>
+  <si>
+    <t>Alhamdulillah di hari jumat yang berkah ini, rekan-rekan Sohib Prass kembali memberikan bantuan labtop kepada anak-anak yang membutuhkan sebagai alat dukung penerapan pembelajaran Jarak Jauh dengan Belajar di Rumah.
+#JumatBerkah #BelajardiRumah https://t.co/MdORkYpLLh</t>
+  </si>
+  <si>
+    <t>PrasetyoEdi_</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 04:03:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>@subschfess Mending belajar di rumah sih nder😌
+.
+Hai kak, aku open sharing zenius dan quipper ya
+Dm aja kalo mau nanya2🌺</t>
+  </si>
+  <si>
+    <t>quizen__</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 03:44:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>@meongkids tapi tuh jateng jatim masuk simulasi malah jadi klister baru :(
+ga bisa jamin apalagi anak sma kalo selama mereka belajar dirumah itu beneran stay di rumah ga nongkrong</t>
+  </si>
+  <si>
+    <t>_kkulcha</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 03:38:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kita mungkin maju satu langkah dengan penerapan belajar di rumah menggunakan meeting room secara virtual, tapi belajar di kelas bareng dosen dan teman memang gak ada obat, ya. Tak tergantikan.</t>
+  </si>
+  <si>
+    <t>GenBI_Official</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 03:22:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>WEBINAR PARENTING SPESIAL SAMBUT HARI IBU 
+Ayah bunda bagaimana kabarnya selama ananda belajar dirumah? Apakah pendidikan karakter anak juga diperhatikan selama belajar di rumah?
+Tema: "Penguatan Karakter Anak Dalam Kegiatan BDR"
+https://t.co/XnX9ppxaAm
+#karenazakat #webinar https://t.co/1ZQYSLOHPT</t>
+  </si>
+  <si>
+    <t>lazisnfku</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 03:13:16 +0000 2020</t>
+  </si>
+  <si>
+    <t>belajar di rumah bisa kok dibikin asyik. mau tahu caranya? dM saja.#JumatBerkah https://t.co/ELJY1AuCCd</t>
+  </si>
+  <si>
+    <t>fuatuttaqwiyah1</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 02:54:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Info Lengkap &amp;amp; Pendaftaran:⠀
+https://t.co/xHaqMg5LwS
+📍Lokasi Belajar:⠀
+Rumah Coding⠀
+🏠 Jl. Margonda Raya Gg. Kramat Batas No. 4⠀
+Depok, Jawa Barat⠀
+(Dekat DMall)
+☎ : (021) 77803574
+📱: +62-857-1005-9175
+#anak #codinganak #TK #SD #SMP #kursuscoding #rumahcoding #scratch https://t.co/goaPSu8hi5</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 02:17:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Bisa nggak ya atur jadwal sekolah siswa yang belajar dari rumah dan di sekolah? Bisa dong! Segera gunakan Kitaschool. Pakai Kitaschool, dapat Gratis mesin absensi WiFi Fingerspot
+https://t.co/Ym6l7ys6wX https://t.co/RCY50Z6Y3U</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 02:00:30 +0000 2020</t>
+  </si>
+  <si>
+    <t>@tanyainrl banyak bgt si , dr ketemu temen baru , belajar betapa ga enak nya di rumah aja , arti keluarga , bykk bt elah</t>
+  </si>
+  <si>
+    <t>chenruto</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 01:42:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>Lagian bocah belajar di rumah mulu juga stress kali yaaa, terus ortu yg ngajarin bocah jg keknya stress. Pasti kangen sama kegiatan² pas sblm pandemi
+#IngatPesanIbu #KatadataLawanCovid19 #SatgasCovid19</t>
+  </si>
+  <si>
+    <t>luvmeong_</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 01:41:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>@andihiyat "Bangun tidur ngulet dulu di kasur trus dengerin lagu 5 jam non-stop, abis itu gua pake Xtreme Power 7000mAh di #GalaxyM51 buat belajar online biar ga kesusahan kalo mau daring dari rumah dan ga perlu lagi ngeluh mau punya hape, sampe ngedumel Mulu sama orang tua karna mau hape.</t>
+  </si>
+  <si>
+    <t>FitriSukia</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 01:40:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>@daffodeela pasti habis itu belajar dari pengalaman, langsung ikut di rumah tante😅 capek bulak-balik jauh</t>
+  </si>
+  <si>
+    <t>thegoodrally</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 01:36:39 +0000 2020</t>
+  </si>
+  <si>
+    <t>2comma tribe online dgn sifu fbads..sifu Jamal
+Cuti2 ni nampaknya kak ikin n malini kena berkurung di rumah sbb kami berguru dgn sifu Jamal utk belajar marketing adv lg.
+Harap2 membuahkan hasil dan dapat bantu ramai lagi yg memerlukan di luar sana💕😁InsyaAllah Alhamdulillah https://t.co/q0bTiRMmUP</t>
+  </si>
+  <si>
+    <t>asyiquofficial</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 01:25:15 +0000 2020</t>
+  </si>
+  <si>
+    <t>@YongLady4 @Mia_Andy___ @Naolback @RizkiAsihan @aLk3cil @MayaAndy5 @reweketE @Queen_b4ck2 @DindaSoecipto @Nisah__04 @nisah__Z4 @MasBRO____ @new_embun @Ladytypo1 @uncdeep @Elsa_Andr14ni salah ya punya keluarga TNI
+Tidak salah....Pakde saya TNI AL
+Miskin hidupnya Rumah  tidak pernah Punya ,Gaji Pas2an,Padahal pangkat nya tinggi,Pernah belajar di U.S. Naval Institute.</t>
+  </si>
+  <si>
+    <t>Kebebas42021080</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 01:24:47 +0000 2020</t>
+  </si>
+  <si>
+    <t>suatu saat akan ada yang bilang gini,, Lho anaku dong Belajar di rumah nilene apik" kox, 80,90,100 mbarang belajar ning sekolah nilene 30,40 paling duwur 50.... ki anaku sekolah kox malah dadi bodho...
+😂😂😂😂#GuyonanPagi</t>
+  </si>
+  <si>
+    <t>Nayakerti</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 01:14:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 01:04:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>@ailetoiles AAAAAAAA lucu gimanaaa... Bangun" masih di kursi belajar aduh😭 biasanya ada asupan kafein tapi karena di rumah ngga dibolehin minum kopi .. sedih banget, jadi ngga kuat buat belajar malem hiks</t>
+  </si>
+  <si>
+    <t>IiIithv</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 00:49:35 +0000 2020</t>
+  </si>
+  <si>
+    <t>@bbyychimmy JDI TUH aku remed mtk kan.. trs kirain bakal dikasi soal mtk gt2 ternyata cuman ditanya keseharian belajar mtk di rumah kayak gimana 😭</t>
+  </si>
+  <si>
+    <t>CHENLENDIPITY</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 00:30:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>@udadipakesemua Plis, udh seharian sekolah, di rumah gausah tanya kenp ga belajar</t>
+  </si>
+  <si>
+    <t>Waferrin_</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 00:15:51 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 23:16:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>Bosen? Gabut di rumah aja? Di sini saya akan membagikan beberapa referensi sumber belajar gratis, mulai desain grafis sampai kedokteran. 
+Yo senggak'e mari pandemi iki cek pinteran titik.</t>
+  </si>
+  <si>
+    <t>chewyoursins</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 22:48:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Belajar di Rumah? Why nut?
+.
+.
+.
+(diperbarui berkala) https://t.co/2hLPb0rLN2</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 22:45:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>Akibat pandemi covid-19 mengharuskan anak untuk belajar di rumah yang pastinya dengan bimbingan orang tua. Maka secara otomatis orang tua akan menjadi guru di rumah untuk anaknya.
+Nama : Nurdya Aprilia
+NPM   : 18120246
+Kelas  : 5C https://t.co/cvAPELbqNE</t>
+  </si>
+  <si>
+    <t>ApriliaNurdya</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 22:42:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Dimasa pandemi covid-19 yang mengharuskan anak untuk belajar dari rumah setiap hari pasti muncul pertanyaan-pertanyaan anak yang ditunjukkan kepada orang tua 'kenapa harus belajar di rumah?' , 'Corona itu apa sih?' seperti pertanyaan-pertanyaan itu. https://t.co/8OUHpJWbVO</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 22:41:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH" 
+📆 : Jumat, 11 Desember 2020
+🕗 : 08.00-11.00 WIB 
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : hanya di TVRI 
+#SemangatBaruMarta
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI https://t.co/XjgxgyGVuJ</t>
+  </si>
+  <si>
+    <t>TheMartaSaputra</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 22:19:19 +0000 2020</t>
+  </si>
+  <si>
+    <t>Lagipula, selama 2 bulan di rumah, belajar cukup sama Nay. 
+"Ndak usah banyak2 mah, segini cukup, nanti kl kurang kan nambah.. Kl dibuang krn ga habis, kan sayang."
+Di tempat yg bisa pesan sesuatu 1/2 porsi, ya pesan segitu. Di tempat yg ga bs, yaaa.. Mau gimana lagi..</t>
+  </si>
+  <si>
+    <t>SelasaPagi_</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 22:08:22 +0000 2020</t>
+  </si>
+  <si>
+    <t>Waktu yang seharusnya dapat dimanfaatkan untuk produktif jadi terbuang sia-sia. Tetapi jangan khawatir! Kita punya solusinya! Yuk di cek tips dari kita, supaya kita tetap semangat saat belajar di rumah😊 https://t.co/zkez5CwoXl</t>
+  </si>
+  <si>
+    <t>BSLC_BINUS</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 20:32:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>Tak terasa sudah akhir tahun tetapi semua aktivitas masih saja dilakukan di dalam rumah. Saat kita berada di zona nyaman kita, rasa malas mudah sekali menyerang diri. Malas mandi, malas makan, bahkan sampai malas belajar. https://t.co/auSKNIOwGo</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 20:30:40 +0000 2020</t>
+  </si>
+  <si>
+    <t>Banyak belajar di  rumah sendiri. trus keluar untuk mencari rumah yg baru, dengan hebat dan bangga sampai lupa jalan pulang. Menurut ku hebat di luar saja tidak penting. Sama seperti kau membangun dan meruntuhkan rumah rintisan mu.</t>
+  </si>
+  <si>
+    <t>Ichiinn1</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 18:39:54 +0000 2020</t>
+  </si>
+  <si>
+    <t>*1 tahun lalu*
+"Mama udah bilang, mama gak setuju kamu sama dia! Keluarganya bukan siapa-siapa!" 
+Suara mama Rino terdengar lamat-lamat di kuping Adin yang tengah duduk di ruang tamu rumah Rino yang megah. 
+"Belajar melepaskan dirinya, walau setengahku bersamanya"</t>
+  </si>
+  <si>
+    <t>upilkelabu</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 18:11:05 +0000 2020</t>
+  </si>
+  <si>
+    <t>@quanshika Ibu rumah tangga juga wanita karir. Ia berkarir di rumah. Mengurus anak, suami, belajar mjd ibu dan istri yg baik. Menyiapkan semua keperluan untuk anggota keluarganya bisa maksimal berperang diluar sana mengambil peran</t>
+  </si>
+  <si>
+    <t>uswhss</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 17:42:13 +0000 2020</t>
+  </si>
+  <si>
+    <t>balada mau nonton ikatan cinta tp itu jam nya vibes belajar bgt jd rumah serasa mencekam,,,,,,terus udh niat mau nonton di vision+ tp besoknya lupa mulu halah</t>
+  </si>
+  <si>
+    <t>sinnersalma</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 17:08:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>@schouten_id Dan tentu #specialmoment ku di tahun 2020 adlh belajar utk lbh sabar lg krn baru thn ini hrs di rumah terus 24 jam sehari dgn org yg sama 😂 aku jg beraniin diri ikut volunteer vaksin covid, #specialmoment lainnya buatku yg awalnya ragu, tp krn ingin bantu jd aku beraniin diri</t>
+  </si>
+  <si>
+    <t>optimooz</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 17:06:28 +0000 2020</t>
+  </si>
+  <si>
+    <t>Waktu 24jam semakin terasa tidak cukup utk belajar, melakukan hobi, melakukan pekerjaan rumah, istirahat, dll. Waktu juga semakin terasa sempit krn dipersulit oleh sinyal yg lelet. Huft
+Semoga proposal buat masang wifi di rumah bisa tembus, aamiin</t>
+  </si>
+  <si>
+    <t>ichanyeoll</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 17:05:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>@Afuf_ Sabar bang. Ingatlah ibu bapa di rumah hantr belajar jauh jauh</t>
+  </si>
+  <si>
+    <t>aiqalshaqimi</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 16:54:56 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadwal Siaran dan Materi Pembelajaran untuk Program "BELAJAR DARI RUMAH" 
+📆 : Jumat, 11 Desember 2020
+🕗 : 08.00-11.00 WIB 
+🙇‍♀ : Sesuai jenjang pendidikan
+📺 : hanya di TVRI 
+#BelajarDariRumah
+#MediaPemersatuBangsa #TVRI #TVRINASIONAL https://t.co/7yIs7EvUyF</t>
+  </si>
+  <si>
+    <t>TVRINasional</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 16:02:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>@JAPANFESS gaada palingan buku budidaya ikan lele, cara menanam sayuran di rumah, belajar budidaya ikan air tawar yuk!, ama buku pramuka.</t>
+  </si>
+  <si>
+    <t>lcssitude</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 15:53:31 +0000 2020</t>
+  </si>
+  <si>
+    <t>@collegemenfess Aku juga jadi jarang belajar soalnya males, ga semangat, soalnya aku belajar kalo ada temennya, di rumah gaada yg ngebuat aku pengen belajar😭</t>
+  </si>
+  <si>
+    <t>nisapasih</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 15:45:51 +0000 2020</t>
+  </si>
+  <si>
+    <t>Terima kasih indihome selalu membuatku lancar belajar di rumah #thnbaruathome https://t.co/HUvCxn8cfT</t>
+  </si>
+  <si>
+    <t>fuyunoosuke</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 15:31:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>Biasanya kalo lagi di tinggal org rumah udh ngelayab kemana mana nih, tp skrg gabisa karna mesti belajar hufttttt</t>
+  </si>
+  <si>
+    <t>vivilivian</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 14:57:11 +0000 2020</t>
+  </si>
+  <si>
+    <t>duh selama di rumah aja keknya gue makin gaada ambisi gara2 udh jenuh sm capek tp kek gue ga berhak buat capek anjritt kek apa yg gue capekinnn?? gue belajar jg udh gajelas bgt anjrit adohh stress anjrot😔🔫</t>
+  </si>
+  <si>
+    <t>makgeolliy</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 14:56:29 +0000 2020</t>
+  </si>
+  <si>
+    <t>setuju! kapan lg aku yg merantau di rumah selama 9 bulan... di 2020 juga belajar untuk damai dengan hidup dan lebih mengenal diri sendiri (walaupun progressnya masih dikit ya, daripada ga sama sekali)🥲🥰 https://t.co/sC6iQdFwIG</t>
+  </si>
+  <si>
+    <t>sarapanbergizi</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 14:42:50 +0000 2020</t>
+  </si>
+  <si>
+    <t>Jadi guru di masa belajar dari rumah lebih banyak kerja otak, tenaga, dan waktu loh bun. Sayangnya bunda tidak menyadari hal tersebut.</t>
+  </si>
+  <si>
+    <t>tiarahmaah</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 14:23:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>@itbfess Kenapa? karena ada masalah keluarga. Lingkungan rumah gak mendukung, bocor, kurang pencahayaan, gak ada meja belajar, sinyal internet susah apalagi kalau pas hujan gak ada sama sekali. Gak ada pemasukkan, jadi beban keluarga. Kalau di bandung gue ada tempat gratis dari kenalan...</t>
+  </si>
+  <si>
+    <t>yovrjupiter</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 14:22:42 +0000 2020</t>
+  </si>
+  <si>
+    <t>@mawuankkjualan pas sd lancar baca stlh seminggu masuk sekolah (ga tk dan ga belajar di rumah sebelumnya) 
+selalu ranking 2 besar
+nilai iq tertinggi sekelurahan
+nilai UN sd tertinggi juga (mtk 9.75, ipa 9.25, indo 9.20)
+nilai terbesar uji coba sbmptn 3kali berturut2 di sma, selalu rank 5besar</t>
+  </si>
+  <si>
+    <t>jeekielicious</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 14:17:59 +0000 2020</t>
+  </si>
+  <si>
+    <t>@dhariy8 Eh tp macem2 size nya, itu ukuran yg paling kecil. Tp cukupan lah klo buat belajar di rumah hehe</t>
+  </si>
+  <si>
+    <t>aprilandmay__</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 14:15:14 +0000 2020</t>
+  </si>
+  <si>
+    <t>@itbfess Vibe di rumah ga mendukung buat belajar, ak pun begitu di rumah malah rebahan</t>
+  </si>
+  <si>
+    <t>semburanlumpur</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 13:56:18 +0000 2020</t>
+  </si>
+  <si>
+    <t>HUAAAA NANGIS BANGETTTT😭😭 Alhamdulillah alhamdulillah alhamdulillah yaa Allah😭 capeknya belajar dan segala usaha buat ukom ini finally membuahkan hasil😭 akhirnya bisa kerja di rumah sakit😭 thanks to 2020😘❣ https://t.co/pREuXmNUPt</t>
+  </si>
+  <si>
+    <t>milyardermuda__</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 13:52:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>Waktu itu lagi banjir Jkt, orang rumah gw terjebak di jalan.. gue sendiri dirumah lagi belajar buat test Inggris (gw mau ke SG), meski lagi hujan dingin, tiba2 tangan kanan gue menjadi hangat seperti dipegang something but i cant see! Gw lari ke tempat pecel lele sampe jam 3 pagi</t>
+  </si>
+  <si>
+    <t>VeloRuntheworld</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 13:45:43 +0000 2020</t>
+  </si>
+  <si>
+    <t>Anak butuh banyak penyesuaian ketika harus belajar online di rumah. Nah, berikut ini 4 tips mendukung anak belajar di rumah dengan aman dan nyaman, Bunda. https://t.co/KkE3MuhmsE</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 13:36:27 +0000 2020</t>
+  </si>
+  <si>
+    <t>@samsungID Samsung Galaxy A01 hadir untuk menjawab kebutuhan di era new normal, yg masih menjalani aktivitas belajar secara online d rumah,smartphone terbaik,ekonomis,Galaxy A01 memberikn gratis internet 1 tahun. Maka Samsung adlh pilihan tepat untuk siswa dlm Era New Normal. #GalaxyNote20</t>
+  </si>
+  <si>
+    <t>JMoerrah</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 13:25:23 +0000 2020</t>
+  </si>
+  <si>
+    <t>Saat belajar di rumah, saya sangat butuh sekali jaringan lancar seperti IndiHome.  #thbaruatindihome https://t.co/VTJhIv1jNk</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 13:25:12 +0000 2020</t>
+  </si>
+  <si>
+    <t>Belajar juga engga, karna buku2 catetan gatau di taro dimana akibat pindah rumah
+Ditambah khawatir ga kompeten karna hasilnya lama keluar
+Alhamdulillah aku kompeten.. 
+Selamat buat aku atas perjuangannya</t>
+  </si>
+  <si>
+    <t>hanadulseett</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 12:35:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 12:34:24 +0000 2020</t>
+  </si>
+  <si>
+    <t>nyesel banget gitarku masih di rumah uti nyesel gabawa balik rumah awal2 koronces WKWK padahal mau belajar bass sama kang betot https://t.co/uCTb5LeQG2</t>
+  </si>
+  <si>
+    <t>yonkeeey</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 12:29:44 +0000 2020</t>
+  </si>
+  <si>
+    <t>@rosemanado kok bisa sih?😭 terus belajar di rumah gimana?😭😭</t>
+  </si>
+  <si>
+    <t>dddumpline</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 07:37:38 +0000 2020</t>
+  </si>
+  <si>
+    <t>akuarana</t>
+  </si>
+  <si>
+    <t>Selama pandemi, kita memang lebih banyak belajar di rumah. Akan tetapi, itu bukan menjadi halangan untuk terus semangat. Jaga kesehatan, terapkan selalu 3M ya! https://t.co/p0KfWDawjg</t>
+  </si>
+  <si>
+    <t>nuurusshidiiq</t>
+  </si>
+  <si>
+    <t>Thu Dec 10 01:41:23 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -14994,10 +16708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1677"/>
+  <dimension ref="A1:D1935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1663" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1682" sqref="D1682"/>
+    <sheetView tabSelected="1" topLeftCell="A1921" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1937" sqref="E1937"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38480,6 +40194,3618 @@
         <v>2616</v>
       </c>
     </row>
+    <row r="1678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1678">
+        <v>1.3377426539878029E+18</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>4394</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>4395</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1679">
+        <v>1.3377426111346519E+18</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>4397</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1680">
+        <v>1.3377391792837299E+18</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>4399</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>4400</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1681">
+        <v>1.3377390606646231E+18</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>4402</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1682">
+        <v>1.3377385340320361E+18</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>4404</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>4405</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1683">
+        <v>1.33773776040944E+18</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>4407</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>4408</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1684">
+        <v>1.3377371480158661E+18</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>4411</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1685">
+        <v>1.337732955142144E+18</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1686">
+        <v>1.3377317971493681E+18</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>4414</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>4415</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1687">
+        <v>1.3377313987113979E+18</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>4417</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>4418</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1688">
+        <v>1.3377291102908329E+18</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>4420</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>4421</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1689">
+        <v>1.3377289845958451E+18</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>4424</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1690">
+        <v>1.3377289826748831E+18</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>4426</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>4424</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1691">
+        <v>1.337728978459582E+18</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>4424</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1692">
+        <v>1.3377289743114611E+18</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>4424</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1693">
+        <v>1.337703514894529E+18</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>4433</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1694">
+        <v>1.3376932518646779E+18</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>4435</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>4436</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1695">
+        <v>1.3376879459484511E+18</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>4439</v>
+      </c>
+      <c r="D1695" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1696">
+        <v>1.337680471883276E+18</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>4441</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>4442</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1697">
+        <v>1.3376789504582569E+18</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>4444</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1698">
+        <v>1.337678668412244E+18</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1699">
+        <v>1.3376780033424791E+18</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>4448</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1700">
+        <v>1.337676512749781E+18</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>4450</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1701">
+        <v>1.3376758230468201E+18</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>4452</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1702">
+        <v>1.3376749813422369E+18</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>4454</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1703">
+        <v>1.337674084042228E+18</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>4456</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1704">
+        <v>1.3376733796424131E+18</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1705">
+        <v>1.3376683716643919E+18</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>4460</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1706">
+        <v>1.337659404632482E+18</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>4463</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1707">
+        <v>1.3376577754474501E+18</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>4465</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>4466</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1708">
+        <v>1.337657112197919E+18</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>4468</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>4469</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1709">
+        <v>1.3376539475325949E+18</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>4472</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1710">
+        <v>1.3376384911239739E+18</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>4405</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1711">
+        <v>1.33763706802595E+18</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>4476</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>4477</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1712">
+        <v>1.3376282873763999E+18</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>4479</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>4480</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1713">
+        <v>1.3376233319949309E+18</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>4482</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>4483</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1714">
+        <v>1.337620036593185E+18</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>4485</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>4486</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1715">
+        <v>1.337619148361269E+18</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>4489</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1716">
+        <v>1.3376154755140979E+18</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>4491</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>4492</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1717">
+        <v>1.337611711071732E+18</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>4494</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>4495</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1718">
+        <v>1.3376042512881459E+18</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>4497</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>4165</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1719">
+        <v>1.337598472262849E+18</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>4500</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1720">
+        <v>1.3375961501073651E+18</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>4502</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>4503</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1721">
+        <v>1.337595655385014E+18</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>4502</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>4505</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1722">
+        <v>1.3375955394712251E+18</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>4502</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>4507</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1723">
+        <v>1.337593967848747E+18</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>4509</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1724">
+        <v>1.337593952187212E+18</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1725">
+        <v>1.337593833433879E+18</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>4514</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1726">
+        <v>1.3375883646948311E+18</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>4516</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>4517</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1727">
+        <v>1.3375879344515149E+18</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>4520</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1728">
+        <v>1.3375820758351091E+18</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>4523</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1729">
+        <v>1.3375780456668239E+18</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>4525</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>4526</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1730">
+        <v>1.337577636860576E+18</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>4529</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1731">
+        <v>1.3375761546229061E+18</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>4531</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>4532</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1732">
+        <v>1.3375756724038211E+18</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>4534</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1733">
+        <v>1.337570865374892E+18</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>4536</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>4537</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1734">
+        <v>1.337568304559317E+18</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>4539</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>4540</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1735">
+        <v>1.33756345482401E+18</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>4542</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1736">
+        <v>1.3375454837707571E+18</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>4545</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1737">
+        <v>1.3375444988348539E+18</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>4547</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>4548</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1738">
+        <v>1.3375412086466849E+18</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>4550</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>4551</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1739">
+        <v>1.3375336314309709E+18</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>4553</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1740">
+        <v>1.3375228296051341E+18</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>4555</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>4556</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1741">
+        <v>1.3375176610522319E+18</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>4559</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1742">
+        <v>1.337458187306295E+18</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>4561</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>4562</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1743">
+        <v>1.3374577384780639E+18</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>4564</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>4565</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1744">
+        <v>1.337455032145302E+18</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>4567</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1745">
+        <v>1.337451862123979E+18</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>4569</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>4570</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1746">
+        <v>1.337438981831553E+18</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>756</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1747">
+        <v>1.337433840499839E+18</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>4574</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1748">
+        <v>1.33743261762542E+18</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>4576</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>4577</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1749">
+        <v>1.3374300976791721E+18</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>4579</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>4580</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1750">
+        <v>1.337425992462176E+18</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>4582</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1751">
+        <v>1.3374235424265631E+18</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>4584</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>4585</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1752">
+        <v>1.3374228738461161E+18</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>4587</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>4588</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1753">
+        <v>1.337411420028203E+18</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>4590</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>4591</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1754">
+        <v>1.337404964319052E+18</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>4593</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>839</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1755">
+        <v>1.3374025446502111E+18</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>4595</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>4596</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1756">
+        <v>1.3374024966799649E+18</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>4598</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>4599</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1757">
+        <v>1.3374014466317599E+18</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>4601</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>4599</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1758">
+        <v>1.3373990194216179E+18</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>4603</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>4604</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1759">
+        <v>1.3373988974302579E+18</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>4606</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>4607</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1760">
+        <v>1.3373923712442739E+18</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>4609</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>4610</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1761">
+        <v>1.3373914486232509E+18</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>4612</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>4613</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1762">
+        <v>1.3373908842796319E+18</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>4615</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1763">
+        <v>1.337386998219244E+18</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>4617</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>4618</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1764">
+        <v>1.3373825755814541E+18</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>4620</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1765">
+        <v>1.337381980275573E+18</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>4622</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>4623</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1766">
+        <v>1.337381887548002E+18</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>4625</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>4626</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1767">
+        <v>1.3373816491771661E+18</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>4628</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>4629</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1768">
+        <v>1.3373796242342789E+18</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>4631</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>4632</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1769">
+        <v>1.3373785454551411E+18</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>4634</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>4635</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1770">
+        <v>1.337373988658401E+18</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>4637</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>4638</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1771">
+        <v>1.3373705727710861E+18</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1772">
+        <v>1.3373658937565839E+18</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>4641</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>4642</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1773">
+        <v>1.3373655257524721E+18</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>4644</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>4645</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1774">
+        <v>1.3373655115128909E+18</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>4647</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>4648</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1775">
+        <v>1.337352202990412E+18</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>4650</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>4651</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1776">
+        <v>1.3373469691072681E+18</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>4653</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1777">
+        <v>1.3373420850667359E+18</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>4658</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1778">
+        <v>1.337338960918454E+18</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>4659</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>4660</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1779">
+        <v>1.3373327902457449E+18</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>4662</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>4663</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>4664</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1780">
+        <v>1.337329663035625E+18</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>4666</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>4667</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1781">
+        <v>1.337329474623263E+18</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>4669</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1782">
+        <v>1.337329013895786E+18</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>4671</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>4669</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1783">
+        <v>1.33732730157117E+18</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>4673</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>4674</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1784">
+        <v>1.337325366067618E+18</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>4676</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>4677</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1785">
+        <v>1.3373245055391171E+18</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>4679</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>4680</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1786">
+        <v>1.3373241323215301E+18</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>4682</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>4683</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1787">
+        <v>1.337323070264992E+18</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>4685</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>4686</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1788">
+        <v>1.33731555560319E+18</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>4688</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>4689</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1789">
+        <v>1.337314205251191E+18</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>4691</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>4692</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1790">
+        <v>1.337304137772364E+18</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>4695</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1791">
+        <v>1.337301628102185E+18</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>4697</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>4698</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1792">
+        <v>1.3372997063223831E+18</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>4700</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>4701</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1793">
+        <v>1.3372950783986481E+18</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>4703</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>4704</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1794">
+        <v>1.3372935396973279E+18</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>4706</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1795">
+        <v>1.33729297375982E+18</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>4708</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>4709</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1796">
+        <v>1.3372890872380659E+18</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>4711</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>4712</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>4713</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1797">
+        <v>1.337285897448874E+18</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>4714</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>4715</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1798">
+        <v>1.3372845774510689E+18</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>4717</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>4718</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1799">
+        <v>1.3372827387940859E+18</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>4720</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>4721</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1800">
+        <v>1.3372807621611891E+18</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>4723</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>4724</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1801">
+        <v>1.3372798154774451E+18</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>4720</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>4721</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1802">
+        <v>1.337276176230826E+18</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>4728</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>4729</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1803">
+        <v>1.337272711815426E+18</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>4731</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1804">
+        <v>1.3372699792263621E+18</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>4733</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>4734</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1805">
+        <v>1.3372690723884439E+18</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>4736</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>4737</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1806">
+        <v>1.3372690372779871E+18</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>4739</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>4740</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>4741</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1807">
+        <v>1.337266353967788E+18</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>4742</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>4743</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1808">
+        <v>1.3372661386825201E+18</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>4745</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>4746</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1809">
+        <v>1.3372641369341911E+18</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>4748</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>4749</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1810">
+        <v>1.337258559738794E+18</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>4751</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>4752</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1811">
+        <v>1.337254704636555E+18</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>4753</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>4754</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1812">
+        <v>1.3372546967513091E+18</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>4755</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1813">
+        <v>1.3372520012607941E+18</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>4757</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>4758</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1814">
+        <v>1.33724914718797E+18</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1815">
+        <v>1.3372466477518269E+18</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>4761</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>4762</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>4763</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1816">
+        <v>1.3372418278967749E+18</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>4764</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>4765</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1817">
+        <v>1.3372402006830121E+18</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>4767</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>4768</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1818">
+        <v>1.3372361851109051E+18</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>4770</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>4771</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1819">
+        <v>1.3372339657997271E+18</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>4773</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>4774</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1820">
+        <v>1.3372292828215869E+18</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>4776</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>4777</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1821">
+        <v>1.3372199198098309E+18</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1822">
+        <v>1.3372156538418299E+18</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>4781</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1823">
+        <v>1.337211045459317E+18</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>4783</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>4784</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1824">
+        <v>1.337210991034028E+18</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>4786</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>4787</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1825">
+        <v>1.337210501449847E+18</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>4789</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>4790</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>4791</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1826">
+        <v>1.3372096518934531E+18</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>4792</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>4793</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1827">
+        <v>1.337206781030719E+18</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>4795</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>4796</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1828">
+        <v>1.3372066661153459E+18</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>4798</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1829">
+        <v>1.3372040649336909E+18</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>4801</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>4802</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1830">
+        <v>1.3372015467826419E+18</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>4804</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1831">
+        <v>1.3371978077661309E+18</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>4805</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>4806</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1832">
+        <v>1.3371930089287519E+18</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>4808</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>4809</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1833">
+        <v>1.33718931568051E+18</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>4811</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>4812</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>4813</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1834">
+        <v>1.3371742768692549E+18</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1835">
+        <v>1.3371672194452559E+18</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>4815</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>4816</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>4817</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1836">
+        <v>1.3371666903673769E+18</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>4818</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>4816</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1837">
+        <v>1.3371657910708101E+18</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>4820</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>4821</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>4822</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1838">
+        <v>1.337165691007295E+18</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>4823</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>4821</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1839">
+        <v>1.3371599905455639E+18</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>4825</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>4826</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1840">
+        <v>1.3371572347620311E+18</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>4828</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>4829</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1841">
+        <v>1.337133030255649E+18</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>4831</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>4832</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1842">
+        <v>1.3371326461370939E+18</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>4834</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>4832</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>4835</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1843">
+        <v>1.3371047725837599E+18</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>4836</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>4837</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>4838</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1844">
+        <v>1.337097519088587E+18</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>4839</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>4840</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1845">
+        <v>1.3370902552502889E+18</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>4842</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>4843</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>4844</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1846">
+        <v>1.3370816901921339E+18</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>4845</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>4846</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>4847</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1847">
+        <v>1.3370812570379761E+18</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>4848</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>4849</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1848">
+        <v>1.337081017572606E+18</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>4851</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>4852</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>4853</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1849">
+        <v>1.337078356999721E+18</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>4854</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>4855</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>4856</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1850">
+        <v>1.337065134020309E+18</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>4857</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>4858</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1851">
+        <v>1.33706289940831E+18</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>4860</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>4861</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1852">
+        <v>1.337060971240694E+18</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>4863</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>4864</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1853">
+        <v>1.3370574820579121E+18</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>4866</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>4867</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>4868</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1854">
+        <v>1.337048722400809E+18</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>4869</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>4870</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>4871</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1855">
+        <v>1.3370485455227579E+18</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>4872</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>4873</v>
+      </c>
+      <c r="D1855" t="s">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1856">
+        <v>1.3370451117216279E+18</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>4875</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>4876</v>
+      </c>
+      <c r="D1856" t="s">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1857">
+        <v>1.33704012982786E+18</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>4878</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>4879</v>
+      </c>
+      <c r="D1857" t="s">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1858">
+        <v>1.3370400455726451E+18</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>4881</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>4882</v>
+      </c>
+      <c r="D1858" t="s">
+        <v>4883</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1859">
+        <v>1.3370388572802089E+18</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>4884</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>4885</v>
+      </c>
+      <c r="D1859" t="s">
+        <v>4886</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1860">
+        <v>1.3370381652493839E+18</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>4888</v>
+      </c>
+      <c r="D1860" t="s">
+        <v>4889</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1861">
+        <v>1.337033400511681E+18</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>4890</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>4891</v>
+      </c>
+      <c r="D1861" t="s">
+        <v>4892</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1862">
+        <v>1.337032434274071E+18</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>4893</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>4894</v>
+      </c>
+      <c r="D1862" t="s">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1863">
+        <v>1.3370307362142579E+18</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>4896</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>4897</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1864">
+        <v>1.3370284068280279E+18</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>4899</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1864" t="s">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1865">
+        <v>1.3370256192557061E+18</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>4901</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>4902</v>
+      </c>
+      <c r="D1865" t="s">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1866">
+        <v>1.3370255748463941E+18</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>4904</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>3867</v>
+      </c>
+      <c r="D1866" t="s">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1867">
+        <v>1.3370129498487109E+18</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>4906</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>4907</v>
+      </c>
+      <c r="D1867" t="s">
+        <v>4908</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1868">
+        <v>1.3370127910733619E+18</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1869">
+        <v>1.337011616013898E+18</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>4910</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>4911</v>
+      </c>
+      <c r="D1869" t="s">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1870">
+        <v>1.33700829642367E+18</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>3744</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D1870" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1871">
+        <v>1.3370050946471649E+18</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D1871" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1872">
+        <v>1.337005052112736E+18</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D1872" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1873">
+        <v>1.337002454051787E+18</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>3751</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>3752</v>
+      </c>
+      <c r="D1873" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1874">
+        <v>1.3370016668438771E+18</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>3754</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>3755</v>
+      </c>
+      <c r="D1874" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1875">
+        <v>1.3370002880880189E+18</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>3757</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D1875" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1876">
+        <v>1.3369993595152179E+18</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>3760</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>3761</v>
+      </c>
+      <c r="D1876" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1877">
+        <v>1.3369985125342779E+18</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>3763</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D1877" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1878">
+        <v>1.336997887771701E+18</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>3765</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D1878" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1879">
+        <v>1.3369978721563771E+18</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>3768</v>
+      </c>
+      <c r="C1879" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D1879" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1880">
+        <v>1.336997856708727E+18</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1881">
+        <v>1.3369978315890519E+18</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1882">
+        <v>1.3369945540843971E+18</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>3775</v>
+      </c>
+      <c r="D1882" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1883">
+        <v>1.3369919538004211E+18</v>
+      </c>
+      <c r="B1883" t="s">
+        <v>3777</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>3778</v>
+      </c>
+      <c r="D1883" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1884">
+        <v>1.3369919384996741E+18</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>3780</v>
+      </c>
+      <c r="C1884" t="s">
+        <v>3781</v>
+      </c>
+      <c r="D1884" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1885">
+        <v>1.3369879070940239E+18</v>
+      </c>
+      <c r="B1885" t="s">
+        <v>3783</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>3784</v>
+      </c>
+      <c r="D1885" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1886">
+        <v>1.3369870082169651E+18</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>3786</v>
+      </c>
+      <c r="C1886" t="s">
+        <v>3787</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1887">
+        <v>1.3369861171244201E+18</v>
+      </c>
+      <c r="B1887" t="s">
+        <v>3789</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>3790</v>
+      </c>
+      <c r="D1887" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1888">
+        <v>1.3369779395990321E+18</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>3792</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>3793</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1889">
+        <v>1.3369723240383281E+18</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>3795</v>
+      </c>
+      <c r="C1889" t="s">
+        <v>3796</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1890">
+        <v>1.336964600340738E+18</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>3799</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1891">
+        <v>1.336964112924873E+18</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>3802</v>
+      </c>
+      <c r="D1891" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1892">
+        <v>1.336951181269058E+18</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>3805</v>
+      </c>
+      <c r="D1892" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1893">
+        <v>1.3369489359239291E+18</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>3811</v>
+      </c>
+      <c r="D1893" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1894">
+        <v>1.336939356582334E+18</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>3813</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1895">
+        <v>1.336938452307255E+18</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>3817</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1896">
+        <v>1.3369381071201769E+18</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>4913</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>4914</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>4915</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1897">
+        <v>1.336930153805406E+18</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>3819</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>4916</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1898">
+        <v>1.3369286421447721E+18</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>3822</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>3823</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1899">
+        <v>1.336928612142838E+18</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>3825</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>3823</v>
+      </c>
+      <c r="D1899" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1900">
+        <v>1.3369285830679181E+18</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>3827</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>3823</v>
+      </c>
+      <c r="D1900" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1901">
+        <v>1.336928477220491E+18</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>3829</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>3823</v>
+      </c>
+      <c r="D1901" t="s">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1902">
+        <v>1.33692843607022E+18</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>3823</v>
+      </c>
+      <c r="D1902" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1903">
+        <v>1.3369279617154089E+18</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>3834</v>
+      </c>
+      <c r="D1903" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1904">
+        <v>1.336926342240031E+18</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>3836</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D1904" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1905">
+        <v>1.3369252549967501E+18</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>3839</v>
+      </c>
+      <c r="C1905" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D1905" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1906">
+        <v>1.3369219088397929E+18</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C1906" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D1906" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1907">
+        <v>1.336920259459092E+18</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>3845</v>
+      </c>
+      <c r="C1907" t="s">
+        <v>3846</v>
+      </c>
+      <c r="D1907" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1908">
+        <v>1.336915155863519E+18</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C1908" t="s">
+        <v>3849</v>
+      </c>
+      <c r="D1908" t="s">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1909">
+        <v>1.336907342323991E+18</v>
+      </c>
+      <c r="B1909" t="s">
+        <v>3851</v>
+      </c>
+      <c r="C1909" t="s">
+        <v>3852</v>
+      </c>
+      <c r="D1909" t="s">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1910">
+        <v>1.3369066714491991E+18</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>3854</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D1910" t="s">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1911">
+        <v>1.3369039966199109E+18</v>
+      </c>
+      <c r="B1911" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>3858</v>
+      </c>
+      <c r="D1911" t="s">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1912">
+        <v>1.336901425247371E+18</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D1912" t="s">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1913">
+        <v>1.3369009962373199E+18</v>
+      </c>
+      <c r="B1913" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C1913" t="s">
+        <v>3864</v>
+      </c>
+      <c r="D1913" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1914">
+        <v>1.3368986753022321E+18</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>3866</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>3867</v>
+      </c>
+      <c r="D1914" t="s">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1915">
+        <v>1.336895792934572E+18</v>
+      </c>
+      <c r="B1915" t="s">
+        <v>3869</v>
+      </c>
+      <c r="C1915" t="s">
+        <v>3870</v>
+      </c>
+      <c r="D1915" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1916">
+        <v>1.336894610774262E+18</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>3872</v>
+      </c>
+      <c r="C1916" t="s">
+        <v>3873</v>
+      </c>
+      <c r="D1916" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1917">
+        <v>1.336893810559787E+18</v>
+      </c>
+      <c r="B1917" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C1917" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1917" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1918">
+        <v>1.336891635385291E+18</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>3877</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>3878</v>
+      </c>
+      <c r="D1918" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1919">
+        <v>1.3368900198358669E+18</v>
+      </c>
+      <c r="B1919" t="s">
+        <v>3880</v>
+      </c>
+      <c r="C1919" t="s">
+        <v>3881</v>
+      </c>
+      <c r="D1919" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1920">
+        <v>1.33688515226221E+18</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>3883</v>
+      </c>
+      <c r="C1920" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1920" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1921">
+        <v>1.336884874708353E+18</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>3885</v>
+      </c>
+      <c r="C1921" t="s">
+        <v>3886</v>
+      </c>
+      <c r="D1921" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1922">
+        <v>1.33688250024575E+18</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C1922" t="s">
+        <v>3889</v>
+      </c>
+      <c r="D1922" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1923">
+        <v>1.3368814554026639E+18</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>3891</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>3892</v>
+      </c>
+      <c r="D1923" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1924">
+        <v>1.3368766630034639E+18</v>
+      </c>
+      <c r="B1924" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C1924" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D1924" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1925">
+        <v>1.3368751575880791E+18</v>
+      </c>
+      <c r="B1925" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C1925" t="s">
+        <v>3898</v>
+      </c>
+      <c r="D1925" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1926">
+        <v>1.336871446706942E+18</v>
+      </c>
+      <c r="B1926" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C1926" t="s">
+        <v>3901</v>
+      </c>
+      <c r="D1926" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1927">
+        <v>1.3368627911692741E+18</v>
+      </c>
+      <c r="B1927" t="s">
+        <v>3906</v>
+      </c>
+      <c r="C1927" t="s">
+        <v>3907</v>
+      </c>
+      <c r="D1927" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1928">
+        <v>1.336862401510081E+18</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>3909</v>
+      </c>
+      <c r="C1928" t="s">
+        <v>3910</v>
+      </c>
+      <c r="D1928" t="s">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1929">
+        <v>1.3368571095651121E+18</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>3912</v>
+      </c>
+      <c r="C1929" t="s">
+        <v>3913</v>
+      </c>
+      <c r="D1929" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1930">
+        <v>1.3368567993334011E+18</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C1930" t="s">
+        <v>3916</v>
+      </c>
+      <c r="D1930" t="s">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1931">
+        <v>1.3368484545516631E+18</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>4917</v>
+      </c>
+      <c r="C1931" t="s">
+        <v>4918</v>
+      </c>
+      <c r="D1931" t="s">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1932">
+        <v>1.336846396188578E+18</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C1932" t="s">
+        <v>538</v>
+      </c>
+      <c r="D1932" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1933">
+        <v>1.3368329538762711E+18</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>3920</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>3921</v>
+      </c>
+      <c r="D1933" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1934">
+        <v>1.3368323343523999E+18</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>3923</v>
+      </c>
+      <c r="C1934" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D1934" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1935">
+        <v>1.336828445766996E+18</v>
+      </c>
+      <c r="B1935" t="s">
+        <v>3926</v>
+      </c>
+      <c r="C1935" t="s">
+        <v>3927</v>
+      </c>
+      <c r="D1935" t="s">
+        <v>3928</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
